--- a/src/AppBundle/tmp/other_component_report.xlsx
+++ b/src/AppBundle/tmp/other_component_report.xlsx
@@ -23,9 +23,6 @@
     <t>Date (YYYY/MM/DD)</t>
   </si>
   <si>
-    <t>2015-10-16</t>
-  </si>
-  <si>
     <t>2015-10-17</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>2015-11-16</t>
+  </si>
+  <si>
+    <t>2015-11-17</t>
   </si>
   <si>
     <t>Round Trip Time (ms)</t>
@@ -231,97 +231,97 @@
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-16</c:v>
+                  <c:v>2015-10-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2015-11-11</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2015-11-12</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2015-11-13</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2015-11-14</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2015-11-15</c:v>
+                  <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -332,10 +332,10 @@
               <c:numCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0.49</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.52</c:v>
@@ -344,58 +344,58 @@
                   <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52</c:v>
+                  <c:v>0.55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.55</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.65</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.53</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.46</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.51</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.48</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.5</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.48</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.41</c:v>
@@ -410,22 +410,22 @@
                   <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.41</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.4</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.42</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.39</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.37</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -576,97 +576,97 @@
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-16</c:v>
+                  <c:v>2015-10-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2015-11-11</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2015-11-12</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2015-11-13</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2015-11-14</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2015-11-15</c:v>
+                  <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -677,100 +677,100 @@
               <c:numCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>64.65000000000001</c:v>
+                  <c:v>43.97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.97</c:v>
+                  <c:v>34.46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.46</c:v>
+                  <c:v>58.18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.18</c:v>
+                  <c:v>54.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54.1</c:v>
+                  <c:v>34.35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.35</c:v>
+                  <c:v>49.89</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.89</c:v>
+                  <c:v>44.93</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44.93</c:v>
+                  <c:v>34.06</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.06</c:v>
+                  <c:v>34.02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.02</c:v>
+                  <c:v>56.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56.6</c:v>
+                  <c:v>37.28</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37.28</c:v>
+                  <c:v>38.96</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38.96</c:v>
+                  <c:v>42.54</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42.54</c:v>
+                  <c:v>40.32</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40.32</c:v>
+                  <c:v>34.45</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.45</c:v>
+                  <c:v>34.37</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34.37</c:v>
+                  <c:v>47.55</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47.55</c:v>
+                  <c:v>41.59</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41.59</c:v>
+                  <c:v>82.02</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>82.02</c:v>
+                  <c:v>103.67</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>103.67</c:v>
+                  <c:v>97.91</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>97.91</c:v>
+                  <c:v>37.08</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>37.08</c:v>
+                  <c:v>37.73</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>37.73</c:v>
+                  <c:v>40.47</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>40.47</c:v>
+                  <c:v>45.62</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45.62</c:v>
+                  <c:v>45.44</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45.44</c:v>
+                  <c:v>41.57</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41.57</c:v>
+                  <c:v>39.94</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>39.94</c:v>
+                  <c:v>34.14</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>34.14</c:v>
+                  <c:v>34.1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>34.1</c:v>
+                  <c:v>46.53</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>47.7</c:v>
+                  <c:v>35.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -921,97 +921,97 @@
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-16</c:v>
+                  <c:v>2015-10-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2015-11-11</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2015-11-12</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2015-11-13</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2015-11-14</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2015-11-15</c:v>
+                  <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1025,10 +1025,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1046,10 +1046,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1067,31 +1067,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -1109,10 +1109,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -1266,97 +1266,97 @@
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-16</c:v>
+                  <c:v>2015-10-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2015-11-11</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2015-11-12</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2015-11-13</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2015-11-14</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2015-11-15</c:v>
+                  <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2139,10 +2139,10 @@
         <v>33</v>
       </c>
       <c r="B2">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="C2">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="D2">
         <v>0.52</v>
@@ -2151,58 +2151,58 @@
         <v>0.52</v>
       </c>
       <c r="F2">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="G2">
-        <v>0.55</v>
+        <v>0.68</v>
       </c>
       <c r="H2">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="I2">
-        <v>0.6</v>
+        <v>0.66</v>
       </c>
       <c r="J2">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="K2">
-        <v>0.65</v>
+        <v>0.53</v>
       </c>
       <c r="L2">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
       <c r="M2">
         <v>0.46</v>
       </c>
       <c r="N2">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="O2">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="P2">
+        <v>0.49</v>
+      </c>
+      <c r="Q2">
+        <v>0.47</v>
+      </c>
+      <c r="R2">
+        <v>0.5</v>
+      </c>
+      <c r="S2">
         <v>0.48</v>
       </c>
-      <c r="Q2">
-        <v>0.49</v>
-      </c>
-      <c r="R2">
-        <v>0.47</v>
-      </c>
-      <c r="S2">
-        <v>0.5</v>
-      </c>
       <c r="T2">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="U2">
         <v>0.41</v>
       </c>
       <c r="V2">
+        <v>0.43</v>
+      </c>
+      <c r="W2">
         <v>0.41</v>
-      </c>
-      <c r="W2">
-        <v>0.43</v>
       </c>
       <c r="X2">
         <v>0.41</v>
@@ -2217,22 +2217,22 @@
         <v>0.41</v>
       </c>
       <c r="AB2">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="AC2">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="AD2">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="AE2">
         <v>0.39</v>
       </c>
       <c r="AF2">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="AG2">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
@@ -2266,7 +2266,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="24.708252" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
@@ -2407,100 +2407,100 @@
         <v>33</v>
       </c>
       <c r="B2">
-        <v>64.65000000000001</v>
+        <v>43.97</v>
       </c>
       <c r="C2">
-        <v>43.97</v>
+        <v>34.46</v>
       </c>
       <c r="D2">
-        <v>34.46</v>
+        <v>58.18</v>
       </c>
       <c r="E2">
-        <v>58.18</v>
+        <v>54.1</v>
       </c>
       <c r="F2">
-        <v>54.1</v>
+        <v>34.35</v>
       </c>
       <c r="G2">
-        <v>34.35</v>
+        <v>49.89</v>
       </c>
       <c r="H2">
-        <v>49.89</v>
+        <v>44.93</v>
       </c>
       <c r="I2">
-        <v>44.93</v>
+        <v>34.06</v>
       </c>
       <c r="J2">
-        <v>34.06</v>
+        <v>34.02</v>
       </c>
       <c r="K2">
-        <v>34.02</v>
+        <v>56.6</v>
       </c>
       <c r="L2">
-        <v>56.6</v>
+        <v>37.28</v>
       </c>
       <c r="M2">
-        <v>37.28</v>
+        <v>38.96</v>
       </c>
       <c r="N2">
-        <v>38.96</v>
+        <v>42.54</v>
       </c>
       <c r="O2">
-        <v>42.54</v>
+        <v>40.32</v>
       </c>
       <c r="P2">
-        <v>40.32</v>
+        <v>34.45</v>
       </c>
       <c r="Q2">
-        <v>34.45</v>
+        <v>34.37</v>
       </c>
       <c r="R2">
-        <v>34.37</v>
+        <v>47.55</v>
       </c>
       <c r="S2">
-        <v>47.55</v>
+        <v>41.59</v>
       </c>
       <c r="T2">
-        <v>41.59</v>
+        <v>82.02</v>
       </c>
       <c r="U2">
-        <v>82.02</v>
+        <v>103.67</v>
       </c>
       <c r="V2">
-        <v>103.67</v>
+        <v>97.91</v>
       </c>
       <c r="W2">
-        <v>97.91</v>
+        <v>37.08</v>
       </c>
       <c r="X2">
-        <v>37.08</v>
+        <v>37.73</v>
       </c>
       <c r="Y2">
-        <v>37.73</v>
+        <v>40.47</v>
       </c>
       <c r="Z2">
-        <v>40.47</v>
+        <v>45.62</v>
       </c>
       <c r="AA2">
-        <v>45.62</v>
+        <v>45.44</v>
       </c>
       <c r="AB2">
-        <v>45.44</v>
+        <v>41.57</v>
       </c>
       <c r="AC2">
-        <v>41.57</v>
+        <v>39.94</v>
       </c>
       <c r="AD2">
-        <v>39.94</v>
+        <v>34.14</v>
       </c>
       <c r="AE2">
-        <v>34.14</v>
+        <v>34.1</v>
       </c>
       <c r="AF2">
-        <v>34.1</v>
+        <v>46.53</v>
       </c>
       <c r="AG2">
-        <v>47.7</v>
+        <v>35.45</v>
       </c>
     </row>
   </sheetData>
@@ -2678,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2699,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2720,31 +2720,31 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>3</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
       <c r="Y2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2762,10 +2762,10 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>

--- a/src/AppBundle/tmp/other_component_report.xlsx
+++ b/src/AppBundle/tmp/other_component_report.xlsx
@@ -18,24 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Date (YYYY/MM/DD)</t>
-  </si>
-  <si>
-    <t>2015-10-17</t>
-  </si>
-  <si>
-    <t>2015-10-18</t>
-  </si>
-  <si>
-    <t>2015-10-19</t>
-  </si>
-  <si>
-    <t>2015-10-20</t>
-  </si>
-  <si>
-    <t>2015-10-21</t>
   </si>
   <si>
     <t>2015-10-22</t>
@@ -227,100 +212,85 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Public_Computer_Ping!$B$1:$AF$1</c:f>
+              <c:f>Public_Computer_Ping!$B$1:$AA$1</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2015-11-12</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2015-11-13</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2015-11-14</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015-11-15</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
@@ -328,62 +298,62 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Public_Computer_Ping!$B$2:$AG$2</c:f>
+              <c:f>Public_Computer_Ping!$B$2:$AB$2</c:f>
               <c:numCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.51</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.55</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.66</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.65</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.53</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.46</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.46</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.51</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.48</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.49</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.47</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.48</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.41</c:v>
@@ -392,39 +362,24 @@
                   <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.43</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.41</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.41</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.41</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.41</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.41</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>0.38</c:v>
                 </c:pt>
               </c:numCache>
@@ -572,100 +527,85 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Network_Ping!$B$1:$AF$1</c:f>
+              <c:f>Network_Ping!$B$1:$AA$1</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2015-11-12</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2015-11-13</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2015-11-14</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015-11-15</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
@@ -673,103 +613,88 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Network_Ping!$B$2:$AG$2</c:f>
+              <c:f>Network_Ping!$B$2:$AB$2</c:f>
               <c:numCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>43.97</c:v>
+                  <c:v>49.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.46</c:v>
+                  <c:v>44.93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.18</c:v>
+                  <c:v>34.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.1</c:v>
+                  <c:v>34.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.35</c:v>
+                  <c:v>56.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.89</c:v>
+                  <c:v>37.28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.93</c:v>
+                  <c:v>38.96</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.06</c:v>
+                  <c:v>42.54</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.02</c:v>
+                  <c:v>40.32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56.6</c:v>
+                  <c:v>34.45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37.28</c:v>
+                  <c:v>34.37</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.96</c:v>
+                  <c:v>47.55</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.54</c:v>
+                  <c:v>41.59</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40.32</c:v>
+                  <c:v>82.02</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>34.45</c:v>
+                  <c:v>103.67</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.37</c:v>
+                  <c:v>97.91</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>47.55</c:v>
+                  <c:v>37.08</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41.59</c:v>
+                  <c:v>37.73</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>82.02</c:v>
+                  <c:v>40.47</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>103.67</c:v>
+                  <c:v>45.62</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>97.91</c:v>
+                  <c:v>45.44</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>37.08</c:v>
+                  <c:v>41.57</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>37.73</c:v>
+                  <c:v>39.94</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>40.47</c:v>
+                  <c:v>34.14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45.62</c:v>
+                  <c:v>34.1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45.44</c:v>
+                  <c:v>46.53</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41.57</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>39.94</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>34.14</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>34.1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>46.53</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>35.45</c:v>
                 </c:pt>
               </c:numCache>
@@ -917,100 +842,85 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>AML_HTTP!$B$1:$AF$1</c:f>
+              <c:f>AML_HTTP!$B$1:$AA$1</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2015-11-12</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2015-11-13</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2015-11-14</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015-11-15</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
@@ -1018,20 +928,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>AML_HTTP!$B$2:$AG$2</c:f>
+              <c:f>AML_HTTP!$B$2:$AB$2</c:f>
               <c:numCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1046,19 +956,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1067,14 +977,14 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1088,33 +998,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1262,100 +1157,85 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Eoffice_HTTP!$B$1:$AF$1</c:f>
+              <c:f>Eoffice_HTTP!$B$1:$AA$1</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2015-11-12</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2015-11-13</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2015-11-14</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015-11-15</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
@@ -1363,9 +1243,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Eoffice_HTTP!$B$2:$AG$2</c:f>
+              <c:f>Eoffice_HTTP!$B$2:$AB$2</c:f>
               <c:numCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1445,21 +1325,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1561,7 +1426,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -1598,7 +1463,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -1635,7 +1500,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -1672,7 +1537,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -1989,7 +1854,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2025,15 +1890,10 @@
     <col min="26" max="26" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="9.10" bestFit="true" style="0"/>
+    <col min="29" max="29" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2118,79 +1978,64 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
       <c r="B2">
+        <v>0.68</v>
+      </c>
+      <c r="C2">
+        <v>0.6</v>
+      </c>
+      <c r="D2">
+        <v>0.66</v>
+      </c>
+      <c r="E2">
+        <v>0.65</v>
+      </c>
+      <c r="F2">
+        <v>0.53</v>
+      </c>
+      <c r="G2">
+        <v>0.46</v>
+      </c>
+      <c r="H2">
+        <v>0.46</v>
+      </c>
+      <c r="I2">
         <v>0.51</v>
       </c>
-      <c r="C2">
-        <v>0.52</v>
-      </c>
-      <c r="D2">
-        <v>0.52</v>
-      </c>
-      <c r="E2">
-        <v>0.52</v>
-      </c>
-      <c r="F2">
-        <v>0.55</v>
-      </c>
-      <c r="G2">
-        <v>0.68</v>
-      </c>
-      <c r="H2">
-        <v>0.6</v>
-      </c>
-      <c r="I2">
-        <v>0.66</v>
-      </c>
       <c r="J2">
-        <v>0.65</v>
+        <v>0.48</v>
       </c>
       <c r="K2">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="L2">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="M2">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="N2">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="O2">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="P2">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="Q2">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="R2">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
       <c r="S2">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="T2">
         <v>0.41</v>
@@ -2199,39 +2044,24 @@
         <v>0.41</v>
       </c>
       <c r="V2">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="W2">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="X2">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="Y2">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="Z2">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AA2">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="AB2">
-        <v>0.4</v>
-      </c>
-      <c r="AC2">
-        <v>0.42</v>
-      </c>
-      <c r="AD2">
-        <v>0.39</v>
-      </c>
-      <c r="AE2">
-        <v>0.39</v>
-      </c>
-      <c r="AF2">
-        <v>0.38</v>
-      </c>
-      <c r="AG2">
         <v>0.38</v>
       </c>
     </row>
@@ -2257,7 +2087,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2293,15 +2123,10 @@
     <col min="26" max="26" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="9.10" bestFit="true" style="0"/>
+    <col min="29" max="29" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2386,120 +2211,90 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
       <c r="B2">
-        <v>43.97</v>
+        <v>49.89</v>
       </c>
       <c r="C2">
-        <v>34.46</v>
+        <v>44.93</v>
       </c>
       <c r="D2">
-        <v>58.18</v>
+        <v>34.06</v>
       </c>
       <c r="E2">
-        <v>54.1</v>
+        <v>34.02</v>
       </c>
       <c r="F2">
-        <v>34.35</v>
+        <v>56.6</v>
       </c>
       <c r="G2">
-        <v>49.89</v>
+        <v>37.28</v>
       </c>
       <c r="H2">
-        <v>44.93</v>
+        <v>38.96</v>
       </c>
       <c r="I2">
-        <v>34.06</v>
+        <v>42.54</v>
       </c>
       <c r="J2">
-        <v>34.02</v>
+        <v>40.32</v>
       </c>
       <c r="K2">
-        <v>56.6</v>
+        <v>34.45</v>
       </c>
       <c r="L2">
-        <v>37.28</v>
+        <v>34.37</v>
       </c>
       <c r="M2">
-        <v>38.96</v>
+        <v>47.55</v>
       </c>
       <c r="N2">
-        <v>42.54</v>
+        <v>41.59</v>
       </c>
       <c r="O2">
-        <v>40.32</v>
+        <v>82.02</v>
       </c>
       <c r="P2">
-        <v>34.45</v>
+        <v>103.67</v>
       </c>
       <c r="Q2">
-        <v>34.37</v>
+        <v>97.91</v>
       </c>
       <c r="R2">
-        <v>47.55</v>
+        <v>37.08</v>
       </c>
       <c r="S2">
-        <v>41.59</v>
+        <v>37.73</v>
       </c>
       <c r="T2">
-        <v>82.02</v>
+        <v>40.47</v>
       </c>
       <c r="U2">
-        <v>103.67</v>
+        <v>45.62</v>
       </c>
       <c r="V2">
-        <v>97.91</v>
+        <v>45.44</v>
       </c>
       <c r="W2">
-        <v>37.08</v>
+        <v>41.57</v>
       </c>
       <c r="X2">
-        <v>37.73</v>
+        <v>39.94</v>
       </c>
       <c r="Y2">
-        <v>40.47</v>
+        <v>34.14</v>
       </c>
       <c r="Z2">
-        <v>45.62</v>
+        <v>34.1</v>
       </c>
       <c r="AA2">
-        <v>45.44</v>
+        <v>46.53</v>
       </c>
       <c r="AB2">
-        <v>41.57</v>
-      </c>
-      <c r="AC2">
-        <v>39.94</v>
-      </c>
-      <c r="AD2">
-        <v>34.14</v>
-      </c>
-      <c r="AE2">
-        <v>34.1</v>
-      </c>
-      <c r="AF2">
-        <v>46.53</v>
-      </c>
-      <c r="AG2">
         <v>35.45</v>
       </c>
     </row>
@@ -2525,7 +2320,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2561,15 +2356,10 @@
     <col min="26" max="26" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="9.10" bestFit="true" style="0"/>
+    <col min="29" max="29" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2654,37 +2444,22 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2699,19 +2474,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -2720,14 +2495,14 @@
         <v>0</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>3</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
       <c r="T2">
         <v>0</v>
       </c>
@@ -2741,33 +2516,18 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>2</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
         <v>0</v>
       </c>
     </row>
@@ -2793,7 +2553,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2829,15 +2589,10 @@
     <col min="26" max="26" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="9.10" bestFit="true" style="0"/>
+    <col min="29" max="29" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2922,26 +2677,11 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
       <c r="B2">
         <v>0</v>
       </c>
@@ -3021,21 +2761,6 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
         <v>0</v>
       </c>
     </row>
